--- a/User Stories and Tasks.xlsx
+++ b/User Stories and Tasks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23580" windowHeight="4110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Status</t>
   </si>
@@ -92,18 +92,6 @@
     <t>Create CPU player profiles</t>
   </si>
   <si>
-    <t>Progress player to next stage</t>
-  </si>
-  <si>
-    <t>Update player score</t>
-  </si>
-  <si>
-    <t>Update players HP</t>
-  </si>
-  <si>
-    <t>Create win condition~</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -111,6 +99,42 @@
   </si>
   <si>
     <t>Med</t>
+  </si>
+  <si>
+    <t>Loi</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Update scores after rolls</t>
+  </si>
+  <si>
+    <t>Save profile to output file</t>
+  </si>
+  <si>
+    <t>Aiden</t>
+  </si>
+  <si>
+    <t>Andee</t>
+  </si>
+  <si>
+    <t>Objective of the game is to guess the number closest to the dealer's number. You begin by selecting what number you think will appear and depending on your choice you can earn more or less points based on the probability of that number landing. A CPU will also roll and compete with you, winning more points/rounds than the computer after 3 rounds will advance you to the next stage.</t>
+  </si>
+  <si>
+    <t>Create win condition for defeating final boss</t>
+  </si>
+  <si>
+    <t>SCRUM Master (Ninja)</t>
+  </si>
+  <si>
+    <t>Jessie</t>
+  </si>
+  <si>
+    <t>Update player global score</t>
+  </si>
+  <si>
+    <t>TBA</t>
   </si>
 </sst>
 </file>
@@ -224,51 +248,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,277 +590,363 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6">
-        <v>3</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3">
         <v>6</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>8</v>
-      </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="2">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
-        <v>10</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
-        <v>11</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7">
-        <v>12</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6">
-        <v>13</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
+      <c r="G16" s="3">
         <v>14</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A12:A15"/>
+  <mergeCells count="5">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A18:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/User Stories and Tasks.xlsx
+++ b/User Stories and Tasks.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkchun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkchun\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22608" windowHeight="7128"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Status</t>
   </si>
@@ -71,18 +71,9 @@
     <t>Display user score data (Average and games played)</t>
   </si>
   <si>
-    <t>As a player I want to see my score data so that I can compare it with others</t>
-  </si>
-  <si>
     <t>As a player I want to browse the menu to select an option</t>
   </si>
   <si>
-    <t>As a player I want see my odds in battle and roll dice to attack</t>
-  </si>
-  <si>
-    <t>As a player I want to be able to defeat a monster to progress to next level</t>
-  </si>
-  <si>
     <t>Display statistical options and points values</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>Andee</t>
   </si>
   <si>
-    <t>Objective of the game is to guess the number closest to the dealer's number. You begin by selecting what number you think will appear and depending on your choice you can earn more or less points based on the probability of that number landing. A CPU will also roll and compete with you, winning more points/rounds than the computer after 3 rounds will advance you to the next stage.</t>
-  </si>
-  <si>
     <t>Create win condition for defeating final boss</t>
   </si>
   <si>
@@ -135,13 +123,58 @@
   </si>
   <si>
     <t>TBA</t>
+  </si>
+  <si>
+    <t>As a player I would like to select "Play Game" from the menu so I can access battle mode</t>
+  </si>
+  <si>
+    <t>Design view stats option</t>
+  </si>
+  <si>
+    <t>Design play mode option</t>
+  </si>
+  <si>
+    <t>As a player I want to select "View Ranking" to see my statistics so I can compare it with others</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to see my battle options in order to select a dice roll option</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to attack a monster by rolling dice so I can defeat the monster</t>
+  </si>
+  <si>
+    <t>As a player I would like to be able to defeat monsters so that I can progress to the next level</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Instructions: Objective of the game is to guess the number closest to the dealer's number. You begin by selecting what number you think will appear and depending on your choice you can earn more or less points based on the probability of that number landing. A CPU will also roll and compete with you, winning more points/rounds than the computer after 3 rounds will advance you to the next stage.</t>
+  </si>
+  <si>
+    <t>Link battle mode to menu interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progress: </t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,19 +190,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -179,12 +227,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -244,48 +316,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -294,8 +395,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -357,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,7 +509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,24 +694,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" customWidth="1"/>
+    <col min="11" max="11" width="3.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -619,334 +740,568 @@
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="I1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="33">
+        <f>(SUM(I2:I21)/SUM(D2:D21))*100</f>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="30">
+        <f>IF(OR(H2="Done"),D2,"")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="30" t="str">
+        <f t="shared" ref="I3:I21" si="0">IF(OR(H3="Done"),D3,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="30">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="G10" s="6">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="8">
+        <v>7</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="30">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="10">
+        <v>8</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="8">
+        <v>9</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="30">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="11">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="11">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="H15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="4">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="6">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="13">
+        <v>10</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="13">
+        <v>13</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="6">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="H21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2">
-        <v>12</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="4" t="s">
+      <c r="F22" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="3">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2">
-        <v>11</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="2">
-        <v>13</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="3">
-        <v>14</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A18:H21"/>
+  <mergeCells count="7">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A23:H26"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/User Stories and Tasks.xlsx
+++ b/User Stories and Tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>Status</t>
   </si>
@@ -47,18 +47,9 @@
     <t>Assigned to</t>
   </si>
   <si>
-    <t>Design basic commandline user interface menu</t>
-  </si>
-  <si>
     <t>User Stories</t>
   </si>
   <si>
-    <t>Design graphical user interface</t>
-  </si>
-  <si>
-    <t>Create user profile</t>
-  </si>
-  <si>
     <t>Display user ranking</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
     <t>Update scores after rolls</t>
   </si>
   <si>
-    <t>Save profile to output file</t>
-  </si>
-  <si>
     <t>Aiden</t>
   </si>
   <si>
@@ -131,9 +119,6 @@
     <t>Design view stats option</t>
   </si>
   <si>
-    <t>Design play mode option</t>
-  </si>
-  <si>
     <t>As a player I want to select "View Ranking" to see my statistics so I can compare it with others</t>
   </si>
   <si>
@@ -146,9 +131,6 @@
     <t>As a player I would like to be able to defeat monsters so that I can progress to the next level</t>
   </si>
   <si>
-    <t>Float</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -168,6 +150,33 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Design basic user interface menu</t>
+  </si>
+  <si>
+    <t>Design detailed graphical user interface</t>
+  </si>
+  <si>
+    <t>As a player I would like to be able to select "Load" or "Create" player in order to make my profile</t>
+  </si>
+  <si>
+    <t>Save profile to output file function</t>
+  </si>
+  <si>
+    <t>Design play mode option in menu</t>
+  </si>
+  <si>
+    <t>Create Player profiles</t>
+  </si>
+  <si>
+    <t>Link create user profile in menu</t>
+  </si>
+  <si>
+    <t>Link load user profile in menu</t>
   </si>
 </sst>
 </file>
@@ -329,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,51 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -414,6 +378,61 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +736,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -740,568 +759,637 @@
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="33">
-        <f>(SUM(I2:I21)/SUM(D2:D21))*100</f>
-        <v>41.666666666666671</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>47</v>
+      <c r="I1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="18">
+        <f>(SUM(I2:I24)/SUM(D2:D24))*100</f>
+        <v>53.488372093023251</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>15</v>
+      <c r="A2" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="30">
+        <v>35</v>
+      </c>
+      <c r="I2" s="15">
         <f>IF(OR(H2="Done"),D2,"")</f>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" s="6">
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="30" t="str">
-        <f t="shared" ref="I3:I21" si="0">IF(OR(H3="Done"),D3,"")</f>
+        <v>36</v>
+      </c>
+      <c r="I3" s="15" t="str">
+        <f t="shared" ref="I3:I23" si="0">IF(OR(H3="Done"),D3,"")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="30" t="str">
+      <c r="A4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="11">
+        <v>15</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="9" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="30" t="str">
+        <v>36</v>
+      </c>
+      <c r="I5" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="A6" s="27"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="8">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
         <v>15</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="30">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="8">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6">
-        <v>4</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="4">
-        <v>12</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="30">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6">
         <v>10</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="8">
+        <v>7</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="10">
+        <v>20</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="10">
+        <v>8</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="6">
-        <v>6</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="5" t="s">
+      <c r="G17" s="8">
+        <v>9</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="4">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="6">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="13">
+        <v>5</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="13">
+        <v>13</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="6">
         <v>10</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="8">
-        <v>7</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="30">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="10">
-        <v>8</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="30">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="8">
-        <v>20</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="8">
-        <v>9</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="30">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="11">
-        <v>10</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="11">
-        <v>15</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="G24" s="6">
+        <v>14</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="15" t="str">
+        <f t="shared" ref="I3:I24" si="1">IF(OR(H24="Done"),D24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="4">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="4">
-        <v>11</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="6">
-        <v>10</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="6">
-        <v>10</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="13">
-        <v>10</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="13">
-        <v>13</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="6">
-        <v>10</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="6">
-        <v>14</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A23:H26"/>
+  <mergeCells count="8">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A26:H29"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A14"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
